--- a/TPI_REEL/Planning/Murat_Planning_Deroulement.xlsx
+++ b/TPI_REEL/Planning/Murat_Planning_Deroulement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TPI_REEL_MDR\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TPI_REEL\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -668,14 +668,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -686,7 +686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16916400" y="4114800"/>
+          <a:off x="17621250" y="4114800"/>
           <a:ext cx="142875" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:DN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK31" sqref="AK31"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CO30" sqref="CO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2974,7 +2974,7 @@
       <c r="W21" s="16"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
+      <c r="Z21" s="16"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
@@ -2986,10 +2986,10 @@
       <c r="AI21" s="15"/>
       <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
@@ -3844,7 +3844,7 @@
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
+      <c r="AP28" s="16"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="4"/>
@@ -3966,19 +3966,19 @@
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="16"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
-      <c r="AY29" s="4"/>
-      <c r="AZ29" s="4"/>
-      <c r="BA29" s="4"/>
-      <c r="BB29" s="4"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="16"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="16"/>
+      <c r="AX29" s="16"/>
+      <c r="AY29" s="16"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="16"/>
       <c r="BC29" s="4"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
@@ -4212,8 +4212,8 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
+      <c r="AR31" s="16"/>
+      <c r="AS31" s="16"/>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
@@ -4330,7 +4330,7 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
+      <c r="AN32" s="16"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
@@ -4453,7 +4453,7 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
+      <c r="AO33" s="16"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>

--- a/TPI_REEL/Planning/Murat_Planning_Deroulement.xlsx
+++ b/TPI_REEL/Planning/Murat_Planning_Deroulement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TPI_REEL\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI_REEL\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -302,13 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,7 +314,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -357,7 +357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Flèche vers le bas 7"/>
+        <xdr:cNvPr id="8" name="Flèche vers le bas 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -411,7 +417,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flèche vers le bas 8"/>
+        <xdr:cNvPr id="9" name="Flèche vers le bas 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -465,7 +477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flèche vers le bas 9"/>
+        <xdr:cNvPr id="10" name="Flèche vers le bas 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -519,7 +537,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Flèche vers le bas 10"/>
+        <xdr:cNvPr id="11" name="Flèche vers le bas 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -573,7 +597,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Flèche vers le bas 11"/>
+        <xdr:cNvPr id="12" name="Flèche vers le bas 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -627,7 +657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Flèche vers le bas 12"/>
+        <xdr:cNvPr id="13" name="Flèche vers le bas 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -681,7 +717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Flèche vers le bas 13"/>
+        <xdr:cNvPr id="14" name="Flèche vers le bas 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -735,7 +777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Flèche vers le bas 14"/>
+        <xdr:cNvPr id="15" name="Flèche vers le bas 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -789,7 +837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Flèche vers le bas 15"/>
+        <xdr:cNvPr id="16" name="Flèche vers le bas 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -843,7 +897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Flèche vers le bas 16"/>
+        <xdr:cNvPr id="17" name="Flèche vers le bas 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -897,7 +957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flèche vers le bas 17"/>
+        <xdr:cNvPr id="18" name="Flèche vers le bas 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -951,7 +1017,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Flèche vers le bas 18"/>
+        <xdr:cNvPr id="19" name="Flèche vers le bas 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1005,7 +1077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Flèche vers le bas 19"/>
+        <xdr:cNvPr id="20" name="Flèche vers le bas 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1312,19 +1390,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:DN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CO30" sqref="CO30"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC21" sqref="BC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="61.140625" customWidth="1"/>
+    <col min="7" max="7" width="61.15234375" customWidth="1"/>
     <col min="8" max="16" width="2" bestFit="1" customWidth="1"/>
     <col min="17" max="106" width="3" bestFit="1" customWidth="1"/>
     <col min="107" max="117" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1332,7 +1410,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1340,7 +1418,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1348,537 +1426,537 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="21">
         <v>42807</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="21">
         <v>42808</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18">
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="21">
         <v>42815</v>
       </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="18">
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="21">
         <v>42816</v>
       </c>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="18">
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="21">
         <v>42821</v>
       </c>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="18">
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="21">
         <v>42822</v>
       </c>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="18">
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="21">
         <v>42824</v>
       </c>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="18">
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="21">
         <v>42843</v>
       </c>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="18">
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="21">
         <v>42845</v>
       </c>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="18">
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="21">
         <v>42846</v>
       </c>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17"/>
-      <c r="BL10" s="18">
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22"/>
+      <c r="BL10" s="21">
         <v>42849</v>
       </c>
-      <c r="BM10" s="17"/>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="17"/>
-      <c r="BP10" s="18">
+      <c r="BM10" s="22"/>
+      <c r="BN10" s="22"/>
+      <c r="BO10" s="22"/>
+      <c r="BP10" s="21">
         <v>42850</v>
       </c>
-      <c r="BQ10" s="17"/>
-      <c r="BR10" s="17"/>
-      <c r="BS10" s="17"/>
-      <c r="BT10" s="17"/>
-      <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
-      <c r="BW10" s="17"/>
-      <c r="BX10" s="17"/>
-      <c r="BY10" s="18">
+      <c r="BQ10" s="22"/>
+      <c r="BR10" s="22"/>
+      <c r="BS10" s="22"/>
+      <c r="BT10" s="22"/>
+      <c r="BU10" s="22"/>
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22"/>
+      <c r="BX10" s="22"/>
+      <c r="BY10" s="21">
         <v>42852</v>
       </c>
-      <c r="BZ10" s="17"/>
-      <c r="CA10" s="17"/>
-      <c r="CB10" s="17"/>
-      <c r="CC10" s="18">
+      <c r="BZ10" s="22"/>
+      <c r="CA10" s="22"/>
+      <c r="CB10" s="22"/>
+      <c r="CC10" s="21">
         <v>42853</v>
       </c>
-      <c r="CD10" s="17"/>
-      <c r="CE10" s="17"/>
-      <c r="CF10" s="17"/>
-      <c r="CG10" s="18">
+      <c r="CD10" s="22"/>
+      <c r="CE10" s="22"/>
+      <c r="CF10" s="22"/>
+      <c r="CG10" s="21">
         <v>42857</v>
       </c>
-      <c r="CH10" s="17"/>
-      <c r="CI10" s="17"/>
-      <c r="CJ10" s="17"/>
-      <c r="CK10" s="17"/>
-      <c r="CL10" s="17"/>
-      <c r="CM10" s="17"/>
-      <c r="CN10" s="17"/>
-      <c r="CO10" s="17"/>
-      <c r="CP10" s="18">
+      <c r="CH10" s="22"/>
+      <c r="CI10" s="22"/>
+      <c r="CJ10" s="22"/>
+      <c r="CK10" s="22"/>
+      <c r="CL10" s="22"/>
+      <c r="CM10" s="22"/>
+      <c r="CN10" s="22"/>
+      <c r="CO10" s="22"/>
+      <c r="CP10" s="21">
         <v>42798</v>
       </c>
-      <c r="CQ10" s="17"/>
-      <c r="CR10" s="17"/>
-      <c r="CS10" s="17"/>
-      <c r="CT10" s="18">
+      <c r="CQ10" s="22"/>
+      <c r="CR10" s="22"/>
+      <c r="CS10" s="22"/>
+      <c r="CT10" s="21">
         <v>42799</v>
       </c>
-      <c r="CU10" s="17"/>
-      <c r="CV10" s="17"/>
-      <c r="CW10" s="17"/>
-      <c r="CX10" s="18">
+      <c r="CU10" s="22"/>
+      <c r="CV10" s="22"/>
+      <c r="CW10" s="22"/>
+      <c r="CX10" s="21">
         <v>42802</v>
       </c>
-      <c r="CY10" s="17"/>
-      <c r="CZ10" s="17"/>
-      <c r="DA10" s="17"/>
-      <c r="DB10" s="18">
+      <c r="CY10" s="22"/>
+      <c r="CZ10" s="22"/>
+      <c r="DA10" s="22"/>
+      <c r="DB10" s="21">
         <v>42803</v>
       </c>
-      <c r="DC10" s="17"/>
-      <c r="DD10" s="17"/>
-      <c r="DE10" s="17"/>
-      <c r="DF10" s="17"/>
-      <c r="DG10" s="17"/>
-      <c r="DH10" s="17"/>
-      <c r="DI10" s="17"/>
-      <c r="DJ10" s="17"/>
-      <c r="DK10" s="18">
+      <c r="DC10" s="22"/>
+      <c r="DD10" s="22"/>
+      <c r="DE10" s="22"/>
+      <c r="DF10" s="22"/>
+      <c r="DG10" s="22"/>
+      <c r="DH10" s="22"/>
+      <c r="DI10" s="22"/>
+      <c r="DJ10" s="22"/>
+      <c r="DK10" s="21">
         <v>42805</v>
       </c>
-      <c r="DL10" s="17"/>
-      <c r="DM10" s="17"/>
-      <c r="DN10" s="17" t="s">
+      <c r="DL10" s="22"/>
+      <c r="DM10" s="22"/>
+      <c r="DN10" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
-      <c r="BL11" s="17"/>
-      <c r="BM11" s="17"/>
-      <c r="BN11" s="17"/>
-      <c r="BO11" s="17"/>
-      <c r="BP11" s="17"/>
-      <c r="BQ11" s="17"/>
-      <c r="BR11" s="17"/>
-      <c r="BS11" s="17"/>
-      <c r="BT11" s="17"/>
-      <c r="BU11" s="17"/>
-      <c r="BV11" s="17"/>
-      <c r="BW11" s="17"/>
-      <c r="BX11" s="17"/>
-      <c r="BY11" s="17"/>
-      <c r="BZ11" s="17"/>
-      <c r="CA11" s="17"/>
-      <c r="CB11" s="17"/>
-      <c r="CC11" s="17"/>
-      <c r="CD11" s="17"/>
-      <c r="CE11" s="17"/>
-      <c r="CF11" s="17"/>
-      <c r="CG11" s="17"/>
-      <c r="CH11" s="17"/>
-      <c r="CI11" s="17"/>
-      <c r="CJ11" s="17"/>
-      <c r="CK11" s="17"/>
-      <c r="CL11" s="17"/>
-      <c r="CM11" s="17"/>
-      <c r="CN11" s="17"/>
-      <c r="CO11" s="17"/>
-      <c r="CP11" s="17"/>
-      <c r="CQ11" s="17"/>
-      <c r="CR11" s="17"/>
-      <c r="CS11" s="17"/>
-      <c r="CT11" s="17"/>
-      <c r="CU11" s="17"/>
-      <c r="CV11" s="17"/>
-      <c r="CW11" s="17"/>
-      <c r="CX11" s="17"/>
-      <c r="CY11" s="17"/>
-      <c r="CZ11" s="17"/>
-      <c r="DA11" s="17"/>
-      <c r="DB11" s="17"/>
-      <c r="DC11" s="17"/>
-      <c r="DD11" s="17"/>
-      <c r="DE11" s="17"/>
-      <c r="DF11" s="17"/>
-      <c r="DG11" s="17"/>
-      <c r="DH11" s="17"/>
-      <c r="DI11" s="17"/>
-      <c r="DJ11" s="17"/>
-      <c r="DK11" s="17"/>
-      <c r="DL11" s="17"/>
-      <c r="DM11" s="17"/>
-      <c r="DN11" s="17"/>
+    <row r="11" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="22"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="22"/>
+      <c r="BF11" s="22"/>
+      <c r="BG11" s="22"/>
+      <c r="BH11" s="22"/>
+      <c r="BI11" s="22"/>
+      <c r="BJ11" s="22"/>
+      <c r="BK11" s="22"/>
+      <c r="BL11" s="22"/>
+      <c r="BM11" s="22"/>
+      <c r="BN11" s="22"/>
+      <c r="BO11" s="22"/>
+      <c r="BP11" s="22"/>
+      <c r="BQ11" s="22"/>
+      <c r="BR11" s="22"/>
+      <c r="BS11" s="22"/>
+      <c r="BT11" s="22"/>
+      <c r="BU11" s="22"/>
+      <c r="BV11" s="22"/>
+      <c r="BW11" s="22"/>
+      <c r="BX11" s="22"/>
+      <c r="BY11" s="22"/>
+      <c r="BZ11" s="22"/>
+      <c r="CA11" s="22"/>
+      <c r="CB11" s="22"/>
+      <c r="CC11" s="22"/>
+      <c r="CD11" s="22"/>
+      <c r="CE11" s="22"/>
+      <c r="CF11" s="22"/>
+      <c r="CG11" s="22"/>
+      <c r="CH11" s="22"/>
+      <c r="CI11" s="22"/>
+      <c r="CJ11" s="22"/>
+      <c r="CK11" s="22"/>
+      <c r="CL11" s="22"/>
+      <c r="CM11" s="22"/>
+      <c r="CN11" s="22"/>
+      <c r="CO11" s="22"/>
+      <c r="CP11" s="22"/>
+      <c r="CQ11" s="22"/>
+      <c r="CR11" s="22"/>
+      <c r="CS11" s="22"/>
+      <c r="CT11" s="22"/>
+      <c r="CU11" s="22"/>
+      <c r="CV11" s="22"/>
+      <c r="CW11" s="22"/>
+      <c r="CX11" s="22"/>
+      <c r="CY11" s="22"/>
+      <c r="CZ11" s="22"/>
+      <c r="DA11" s="22"/>
+      <c r="DB11" s="22"/>
+      <c r="DC11" s="22"/>
+      <c r="DD11" s="22"/>
+      <c r="DE11" s="22"/>
+      <c r="DF11" s="22"/>
+      <c r="DG11" s="22"/>
+      <c r="DH11" s="22"/>
+      <c r="DI11" s="22"/>
+      <c r="DJ11" s="22"/>
+      <c r="DK11" s="22"/>
+      <c r="DL11" s="22"/>
+      <c r="DM11" s="22"/>
+      <c r="DN11" s="22"/>
     </row>
-    <row r="12" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="17"/>
-      <c r="CI12" s="17"/>
-      <c r="CJ12" s="17"/>
-      <c r="CK12" s="17"/>
-      <c r="CL12" s="17"/>
-      <c r="CM12" s="17"/>
-      <c r="CN12" s="17"/>
-      <c r="CO12" s="17"/>
-      <c r="CP12" s="17"/>
-      <c r="CQ12" s="17"/>
-      <c r="CR12" s="17"/>
-      <c r="CS12" s="17"/>
-      <c r="CT12" s="17"/>
-      <c r="CU12" s="17"/>
-      <c r="CV12" s="17"/>
-      <c r="CW12" s="17"/>
-      <c r="CX12" s="17"/>
-      <c r="CY12" s="17"/>
-      <c r="CZ12" s="17"/>
-      <c r="DA12" s="17"/>
-      <c r="DB12" s="17"/>
-      <c r="DC12" s="17"/>
-      <c r="DD12" s="17"/>
-      <c r="DE12" s="17"/>
-      <c r="DF12" s="17"/>
-      <c r="DG12" s="17"/>
-      <c r="DH12" s="17"/>
-      <c r="DI12" s="17"/>
-      <c r="DJ12" s="17"/>
-      <c r="DK12" s="17"/>
-      <c r="DL12" s="17"/>
-      <c r="DM12" s="17"/>
-      <c r="DN12" s="17"/>
+    <row r="12" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="22"/>
+      <c r="BL12" s="22"/>
+      <c r="BM12" s="22"/>
+      <c r="BN12" s="22"/>
+      <c r="BO12" s="22"/>
+      <c r="BP12" s="22"/>
+      <c r="BQ12" s="22"/>
+      <c r="BR12" s="22"/>
+      <c r="BS12" s="22"/>
+      <c r="BT12" s="22"/>
+      <c r="BU12" s="22"/>
+      <c r="BV12" s="22"/>
+      <c r="BW12" s="22"/>
+      <c r="BX12" s="22"/>
+      <c r="BY12" s="22"/>
+      <c r="BZ12" s="22"/>
+      <c r="CA12" s="22"/>
+      <c r="CB12" s="22"/>
+      <c r="CC12" s="22"/>
+      <c r="CD12" s="22"/>
+      <c r="CE12" s="22"/>
+      <c r="CF12" s="22"/>
+      <c r="CG12" s="22"/>
+      <c r="CH12" s="22"/>
+      <c r="CI12" s="22"/>
+      <c r="CJ12" s="22"/>
+      <c r="CK12" s="22"/>
+      <c r="CL12" s="22"/>
+      <c r="CM12" s="22"/>
+      <c r="CN12" s="22"/>
+      <c r="CO12" s="22"/>
+      <c r="CP12" s="22"/>
+      <c r="CQ12" s="22"/>
+      <c r="CR12" s="22"/>
+      <c r="CS12" s="22"/>
+      <c r="CT12" s="22"/>
+      <c r="CU12" s="22"/>
+      <c r="CV12" s="22"/>
+      <c r="CW12" s="22"/>
+      <c r="CX12" s="22"/>
+      <c r="CY12" s="22"/>
+      <c r="CZ12" s="22"/>
+      <c r="DA12" s="22"/>
+      <c r="DB12" s="22"/>
+      <c r="DC12" s="22"/>
+      <c r="DD12" s="22"/>
+      <c r="DE12" s="22"/>
+      <c r="DF12" s="22"/>
+      <c r="DG12" s="22"/>
+      <c r="DH12" s="22"/>
+      <c r="DI12" s="22"/>
+      <c r="DJ12" s="22"/>
+      <c r="DK12" s="22"/>
+      <c r="DL12" s="22"/>
+      <c r="DM12" s="22"/>
+      <c r="DN12" s="22"/>
     </row>
-    <row r="13" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="17"/>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
-      <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
-      <c r="CC13" s="17"/>
-      <c r="CD13" s="17"/>
-      <c r="CE13" s="17"/>
-      <c r="CF13" s="17"/>
-      <c r="CG13" s="17"/>
-      <c r="CH13" s="17"/>
-      <c r="CI13" s="17"/>
-      <c r="CJ13" s="17"/>
-      <c r="CK13" s="17"/>
-      <c r="CL13" s="17"/>
-      <c r="CM13" s="17"/>
-      <c r="CN13" s="17"/>
-      <c r="CO13" s="17"/>
-      <c r="CP13" s="17"/>
-      <c r="CQ13" s="17"/>
-      <c r="CR13" s="17"/>
-      <c r="CS13" s="17"/>
-      <c r="CT13" s="17"/>
-      <c r="CU13" s="17"/>
-      <c r="CV13" s="17"/>
-      <c r="CW13" s="17"/>
-      <c r="CX13" s="17"/>
-      <c r="CY13" s="17"/>
-      <c r="CZ13" s="17"/>
-      <c r="DA13" s="17"/>
-      <c r="DB13" s="17"/>
-      <c r="DC13" s="17"/>
-      <c r="DD13" s="17"/>
-      <c r="DE13" s="17"/>
-      <c r="DF13" s="17"/>
-      <c r="DG13" s="17"/>
-      <c r="DH13" s="17"/>
-      <c r="DI13" s="17"/>
-      <c r="DJ13" s="17"/>
-      <c r="DK13" s="17"/>
-      <c r="DL13" s="17"/>
-      <c r="DM13" s="17"/>
-      <c r="DN13" s="17"/>
+    <row r="13" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BG13" s="22"/>
+      <c r="BH13" s="22"/>
+      <c r="BI13" s="22"/>
+      <c r="BJ13" s="22"/>
+      <c r="BK13" s="22"/>
+      <c r="BL13" s="22"/>
+      <c r="BM13" s="22"/>
+      <c r="BN13" s="22"/>
+      <c r="BO13" s="22"/>
+      <c r="BP13" s="22"/>
+      <c r="BQ13" s="22"/>
+      <c r="BR13" s="22"/>
+      <c r="BS13" s="22"/>
+      <c r="BT13" s="22"/>
+      <c r="BU13" s="22"/>
+      <c r="BV13" s="22"/>
+      <c r="BW13" s="22"/>
+      <c r="BX13" s="22"/>
+      <c r="BY13" s="22"/>
+      <c r="BZ13" s="22"/>
+      <c r="CA13" s="22"/>
+      <c r="CB13" s="22"/>
+      <c r="CC13" s="22"/>
+      <c r="CD13" s="22"/>
+      <c r="CE13" s="22"/>
+      <c r="CF13" s="22"/>
+      <c r="CG13" s="22"/>
+      <c r="CH13" s="22"/>
+      <c r="CI13" s="22"/>
+      <c r="CJ13" s="22"/>
+      <c r="CK13" s="22"/>
+      <c r="CL13" s="22"/>
+      <c r="CM13" s="22"/>
+      <c r="CN13" s="22"/>
+      <c r="CO13" s="22"/>
+      <c r="CP13" s="22"/>
+      <c r="CQ13" s="22"/>
+      <c r="CR13" s="22"/>
+      <c r="CS13" s="22"/>
+      <c r="CT13" s="22"/>
+      <c r="CU13" s="22"/>
+      <c r="CV13" s="22"/>
+      <c r="CW13" s="22"/>
+      <c r="CX13" s="22"/>
+      <c r="CY13" s="22"/>
+      <c r="CZ13" s="22"/>
+      <c r="DA13" s="22"/>
+      <c r="DB13" s="22"/>
+      <c r="DC13" s="22"/>
+      <c r="DD13" s="22"/>
+      <c r="DE13" s="22"/>
+      <c r="DF13" s="22"/>
+      <c r="DG13" s="22"/>
+      <c r="DH13" s="22"/>
+      <c r="DI13" s="22"/>
+      <c r="DJ13" s="22"/>
+      <c r="DK13" s="22"/>
+      <c r="DL13" s="22"/>
+      <c r="DM13" s="22"/>
+      <c r="DN13" s="22"/>
     </row>
-    <row r="14" spans="2:118" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:118" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="8">
         <v>1</v>
       </c>
@@ -2213,17 +2291,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:118" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:118" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="15"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2335,17 +2413,17 @@
       <c r="DL15" s="2"/>
       <c r="DM15" s="3"/>
     </row>
-    <row r="16" spans="2:118" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:118" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="15"/>
@@ -2457,17 +2535,17 @@
       <c r="DL16" s="2"/>
       <c r="DM16" s="3"/>
     </row>
-    <row r="17" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>3</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="2"/>
       <c r="I17" s="16"/>
       <c r="J17" s="2"/>
@@ -2579,17 +2657,17 @@
       <c r="DL17" s="2"/>
       <c r="DM17" s="3"/>
     </row>
-    <row r="18" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>4</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2701,17 +2779,17 @@
       <c r="DL18" s="2"/>
       <c r="DM18" s="3"/>
     </row>
-    <row r="19" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>5</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2823,17 +2901,17 @@
       <c r="DL19" s="2"/>
       <c r="DM19" s="3"/>
     </row>
-    <row r="20" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>6</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2945,17 +3023,17 @@
       <c r="DL20" s="2"/>
       <c r="DM20" s="3"/>
     </row>
-    <row r="21" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>7</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -3005,23 +3083,23 @@
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
+      <c r="BE21" s="16"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
       <c r="BJ21" s="2"/>
       <c r="BK21" s="2"/>
-      <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
-      <c r="BN21" s="2"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
       <c r="BO21" s="2"/>
-      <c r="BP21" s="2"/>
-      <c r="BQ21" s="2"/>
+      <c r="BP21" s="16"/>
+      <c r="BQ21" s="16"/>
       <c r="BR21" s="2"/>
       <c r="BS21" s="2"/>
       <c r="BT21" s="2"/>
-      <c r="BU21" s="2"/>
+      <c r="BU21" s="16"/>
       <c r="BV21" s="2"/>
       <c r="BW21" s="2"/>
       <c r="BX21" s="2"/>
@@ -3067,17 +3145,17 @@
       <c r="DL21" s="2"/>
       <c r="DM21" s="3"/>
     </row>
-    <row r="22" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>8</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3189,17 +3267,17 @@
       <c r="DL22" s="2"/>
       <c r="DM22" s="3"/>
     </row>
-    <row r="23" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>9</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3311,17 +3389,17 @@
       <c r="DL23" s="2"/>
       <c r="DM23" s="3"/>
     </row>
-    <row r="24" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>10</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3433,17 +3511,17 @@
       <c r="DL24" s="2"/>
       <c r="DM24" s="3"/>
     </row>
-    <row r="25" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B25" s="10">
         <v>11</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3555,17 +3633,17 @@
       <c r="DL25" s="2"/>
       <c r="DM25" s="3"/>
     </row>
-    <row r="26" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>12</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3677,17 +3755,17 @@
       <c r="DL26" s="2"/>
       <c r="DM26" s="3"/>
     </row>
-    <row r="27" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>13</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3799,17 +3877,17 @@
       <c r="DL27" s="2"/>
       <c r="DM27" s="3"/>
     </row>
-    <row r="28" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>14</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3921,17 +3999,17 @@
       <c r="DL28" s="2"/>
       <c r="DM28" s="3"/>
     </row>
-    <row r="29" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B29" s="10">
         <v>15</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3979,9 +4057,9 @@
       <c r="AZ29" s="16"/>
       <c r="BA29" s="16"/>
       <c r="BB29" s="16"/>
-      <c r="BC29" s="4"/>
+      <c r="BC29" s="16"/>
       <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
+      <c r="BE29" s="15"/>
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
@@ -3994,10 +4072,10 @@
       <c r="BO29" s="2"/>
       <c r="BP29" s="2"/>
       <c r="BQ29" s="2"/>
-      <c r="BR29" s="2"/>
-      <c r="BS29" s="2"/>
-      <c r="BT29" s="2"/>
-      <c r="BU29" s="2"/>
+      <c r="BR29" s="16"/>
+      <c r="BS29" s="16"/>
+      <c r="BT29" s="16"/>
+      <c r="BU29" s="16"/>
       <c r="BV29" s="2"/>
       <c r="BW29" s="2"/>
       <c r="BX29" s="2"/>
@@ -4043,17 +4121,17 @@
       <c r="DL29" s="2"/>
       <c r="DM29" s="3"/>
     </row>
-    <row r="30" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>16</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -4165,17 +4243,17 @@
       <c r="DL30" s="2"/>
       <c r="DM30" s="3"/>
     </row>
-    <row r="31" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B31" s="10">
         <v>17</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -4287,17 +4365,17 @@
       <c r="DL31" s="2"/>
       <c r="DM31" s="3"/>
     </row>
-    <row r="32" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>18</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -4350,10 +4428,10 @@
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
-      <c r="BH32" s="2"/>
-      <c r="BI32" s="2"/>
-      <c r="BJ32" s="4"/>
-      <c r="BK32" s="4"/>
+      <c r="BH32" s="16"/>
+      <c r="BI32" s="16"/>
+      <c r="BJ32" s="16"/>
+      <c r="BK32" s="16"/>
       <c r="BL32" s="4"/>
       <c r="BM32" s="4"/>
       <c r="BN32" s="4"/>
@@ -4409,17 +4487,17 @@
       <c r="DL32" s="2"/>
       <c r="DM32" s="3"/>
     </row>
-    <row r="33" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
         <v>19</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4531,17 +4609,17 @@
       <c r="DL33" s="2"/>
       <c r="DM33" s="3"/>
     </row>
-    <row r="34" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>20</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4653,17 +4731,17 @@
       <c r="DL34" s="2"/>
       <c r="DM34" s="3"/>
     </row>
-    <row r="35" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B35" s="10">
         <v>21</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4731,9 +4809,9 @@
       <c r="BT35" s="4"/>
       <c r="BU35" s="4"/>
       <c r="BV35" s="4"/>
-      <c r="BW35" s="4"/>
-      <c r="BX35" s="2"/>
-      <c r="BY35" s="2"/>
+      <c r="BW35" s="16"/>
+      <c r="BX35" s="16"/>
+      <c r="BY35" s="16"/>
       <c r="BZ35" s="2"/>
       <c r="CA35" s="2"/>
       <c r="CB35" s="2"/>
@@ -4775,17 +4853,17 @@
       <c r="DL35" s="2"/>
       <c r="DM35" s="3"/>
     </row>
-    <row r="36" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>22</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4897,17 +4975,17 @@
       <c r="DL36" s="2"/>
       <c r="DM36" s="3"/>
     </row>
-    <row r="37" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B37" s="10">
         <v>23</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -5019,17 +5097,17 @@
       <c r="DL37" s="2"/>
       <c r="DM37" s="3"/>
     </row>
-    <row r="38" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>24</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -5141,17 +5219,17 @@
       <c r="DL38" s="2"/>
       <c r="DM38" s="3"/>
     </row>
-    <row r="39" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B39" s="10">
         <v>25</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -5263,17 +5341,17 @@
       <c r="DL39" s="2"/>
       <c r="DM39" s="3"/>
     </row>
-    <row r="40" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>26</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -5385,17 +5463,17 @@
       <c r="DL40" s="4"/>
       <c r="DM40" s="3"/>
     </row>
-    <row r="41" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B41" s="10">
         <v>27</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -5507,17 +5585,17 @@
       <c r="DL41" s="1"/>
       <c r="DM41" s="5"/>
     </row>
-    <row r="42" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:117" x14ac:dyDescent="0.35">
       <c r="B42" s="10">
         <v>28</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -5629,40 +5707,40 @@
       <c r="DL42" s="6"/>
       <c r="DM42" s="7"/>
     </row>
-    <row r="43" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+    <row r="43" spans="2:117" x14ac:dyDescent="0.35">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+    <row r="44" spans="2:117" x14ac:dyDescent="0.35">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+    <row r="45" spans="2:117" x14ac:dyDescent="0.35">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:117" x14ac:dyDescent="0.35">
       <c r="F46" s="14"/>
       <c r="G46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:117" x14ac:dyDescent="0.35">
       <c r="F47" s="13"/>
       <c r="G47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:117" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:117" x14ac:dyDescent="0.35">
       <c r="F48" s="12"/>
       <c r="G48" t="s">
         <v>33</v>
@@ -5670,13 +5748,39 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="DN10:DN13"/>
+    <mergeCell ref="CT10:CW13"/>
+    <mergeCell ref="CX10:DA13"/>
+    <mergeCell ref="DB10:DJ13"/>
+    <mergeCell ref="DK10:DM13"/>
+    <mergeCell ref="B10:G13"/>
+    <mergeCell ref="BP10:BX13"/>
+    <mergeCell ref="BY10:CB13"/>
+    <mergeCell ref="CC10:CF13"/>
+    <mergeCell ref="CG10:CO13"/>
+    <mergeCell ref="L10:T13"/>
+    <mergeCell ref="U10:X13"/>
+    <mergeCell ref="Y10:AG13"/>
+    <mergeCell ref="AH10:AK13"/>
+    <mergeCell ref="AL10:AO13"/>
+    <mergeCell ref="H10:K13"/>
+    <mergeCell ref="CP10:CS13"/>
+    <mergeCell ref="AP10:AT13"/>
+    <mergeCell ref="AU10:BC13"/>
+    <mergeCell ref="BD10:BG13"/>
+    <mergeCell ref="BH10:BK13"/>
+    <mergeCell ref="BL10:BO13"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C30:G30"/>
@@ -5691,39 +5795,13 @@
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="CP10:CS13"/>
-    <mergeCell ref="AP10:AT13"/>
-    <mergeCell ref="AU10:BC13"/>
-    <mergeCell ref="BD10:BG13"/>
-    <mergeCell ref="BH10:BK13"/>
-    <mergeCell ref="BL10:BO13"/>
-    <mergeCell ref="B10:G13"/>
-    <mergeCell ref="BP10:BX13"/>
-    <mergeCell ref="BY10:CB13"/>
-    <mergeCell ref="CC10:CF13"/>
-    <mergeCell ref="CG10:CO13"/>
-    <mergeCell ref="L10:T13"/>
-    <mergeCell ref="U10:X13"/>
-    <mergeCell ref="Y10:AG13"/>
-    <mergeCell ref="AH10:AK13"/>
-    <mergeCell ref="AL10:AO13"/>
-    <mergeCell ref="H10:K13"/>
-    <mergeCell ref="DN10:DN13"/>
-    <mergeCell ref="CT10:CW13"/>
-    <mergeCell ref="CX10:DA13"/>
-    <mergeCell ref="DB10:DJ13"/>
-    <mergeCell ref="DK10:DM13"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
